--- a/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
+++ b/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4051,4 +4052,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9105</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
+++ b/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4906,4 +4907,514 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
+++ b/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5417,4 +5418,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
+++ b/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5426,7 +5427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5437,17 +5438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5457,14 +5478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.97</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5473,14 +5516,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.96</v>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5489,14 +5554,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.58</v>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5505,13 +5592,719 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>20.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
+++ b/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6203,7 +6204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6214,17 +6215,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6234,14 +6255,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.05</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6250,14 +6293,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.97</v>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6266,14 +6331,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.96</v>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6282,14 +6369,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.58</v>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6298,13 +6407,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>41</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>20.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
+++ b/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6640,7 +6641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,17 +6652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6671,14 +6692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.29</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6687,14 +6730,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.05</v>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6703,14 +6768,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.97</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6719,14 +6806,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.96</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6735,14 +6844,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.58</v>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -6751,13 +6882,1019 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>20.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
+++ b/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>6.9</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>2.29</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5.05</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>2.97</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>5.96</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>16.58</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>41</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>20.39</v>
       </c>
     </row>
@@ -600,6 +617,2186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013561</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013562</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1719,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2155,7 +4352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2931,7 +5128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3441,7 +5638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4295,7 +6492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6289,7 +8486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
+++ b/数据整理/stocks/A股/上证主板/603233-大参林.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>7.94</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>6.9</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>2.29</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>5.05</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>2.97</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>5.96</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>16.58</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1644 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>51</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>41</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>20.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7232</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4310</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0570</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8570</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7611</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6774</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5501</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004225</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保稳诚混合 A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004226</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保稳诚混合 C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>47.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2248,2302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>017213</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2796,7 +6723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3916,7 +7843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4352,7 +8279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5128,7 +9055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5638,7 +9565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6492,7 +10419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8484,1618 +12411,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009345</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中银顺兴回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>128.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>51.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6553</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000960</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商医药健康产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5066</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009362</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商丰盈积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>63.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.1588</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009360</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商创新增长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.7232</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009623</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城创新驱动混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>38.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4310</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009346</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银顺兴回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>59.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>51.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.2339</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009275</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.0570</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161616</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>融通医疗保健行业混合A/B</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.0570</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005689</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8570</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001915</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈医疗健康沪港深股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7611</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007066</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.6774</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009414</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银大健康股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6277</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007718</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5501</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000780</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>11.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5164</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008185</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.4812</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>217009</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商核心价值混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.4104</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007067</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2942</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009363</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商丰盈积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2782</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>161729</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2037</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009361</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商创新增长混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1571</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006243</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中银双息回报混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>77.08</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1207</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1190</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003032</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>平安医疗健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0992</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004225</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国寿安保稳诚混合 A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>23.08</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0990</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0532</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>501007</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>000432</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中银优秀企业混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004226</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国寿安保稳诚混合 C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>23.08</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>000679</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001628</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>招商体育文化休闲股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001563</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华富健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010159</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>501008</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>010500</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>82.60</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010321</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中银大健康股票C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004806</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>47.59</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>005901</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002416</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>005902</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>诺安汇利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>